--- a/pta-template-5vwo.xlsx
+++ b/pta-template-5vwo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C38A03A1-7F4B-4824-BFD4-1E50F23CD170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="11_654AFB152364559E98F57CE4F1F267E1284B43BD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F940553A-7194-4C48-9C7E-3E174258B898}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -564,9 +564,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -582,10 +579,6 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -601,42 +594,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -909,7 +917,7 @@
   <dimension ref="A1:AO62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:O10"/>
+      <selection activeCell="E15" sqref="E15:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -931,7 +939,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="36" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="42"/>
@@ -1454,41 +1462,41 @@
       <c r="AO7" s="2"/>
     </row>
     <row r="8" spans="1:41" ht="134.25" customHeight="1">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="26" t="s">
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="L8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="28" t="s">
+      <c r="M8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="29"/>
-      <c r="O8" s="26" t="s">
+      <c r="N8" s="30"/>
+      <c r="O8" s="23" t="s">
         <v>24</v>
       </c>
       <c r="V8" s="1"/>
@@ -1609,44 +1617,44 @@
       <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
     </row>
-    <row r="10" spans="1:41" ht="14.25">
-      <c r="A10" s="36" t="s">
+    <row r="10" spans="1:41" ht="57.75">
+      <c r="A10" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="15" t="s">
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="36" t="s">
+      <c r="K10" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="O10" s="15" t="s">
+      <c r="O10" s="39" t="s">
         <v>39</v>
       </c>
       <c r="V10" s="1"/>
@@ -1690,23 +1698,23 @@
       <c r="AO10" s="2"/>
     </row>
     <row r="11" spans="1:41" ht="15.75" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="32"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="45"/>
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19" t="s">
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="20"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="19"/>
       <c r="V11" s="1"/>
       <c r="W11" s="2" t="s">
         <v>41</v>
@@ -1717,21 +1725,21 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:41" ht="15.75" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="32"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="45"/>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="20"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="19"/>
       <c r="V12" s="1"/>
       <c r="W12" s="2" t="s">
         <v>41</v>
@@ -1742,7 +1750,7 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:41" ht="15.75" customHeight="1">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="45"/>
@@ -1773,7 +1781,7 @@
       <c r="A14" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="27" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="50"/>
@@ -1801,19 +1809,19 @@
       </c>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:41" ht="12.75">
+    <row r="15" spans="1:41" ht="25.5">
       <c r="A15" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="51"/>
       <c r="C15" s="50"/>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="41" t="s">
         <v>50</v>
       </c>
       <c r="H15" s="1"/>
@@ -1839,9 +1847,9 @@
       </c>
       <c r="B16" s="51"/>
       <c r="C16" s="50"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1865,9 +1873,9 @@
       </c>
       <c r="B17" s="51"/>
       <c r="C17" s="50"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1889,11 +1897,11 @@
       <c r="A18" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="33"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="50"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1917,9 +1925,9 @@
       </c>
       <c r="B19" s="51"/>
       <c r="C19" s="50"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1938,15 +1946,15 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" ht="12.75">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="20" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="52"/>
       <c r="C20" s="50"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1965,15 +1973,15 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="12.75">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="52"/>
       <c r="C21" s="50"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1983,7 +1991,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="24" t="s">
+      <c r="W21" s="21" t="s">
         <v>54</v>
       </c>
       <c r="X21" s="2">
@@ -1992,15 +2000,15 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="12.75">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B22" s="52"/>
       <c r="C22" s="50"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -2010,7 +2018,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="V22" s="1"/>
-      <c r="W22" s="24" t="s">
+      <c r="W22" s="21" t="s">
         <v>54</v>
       </c>
       <c r="X22" s="2">
@@ -2035,7 +2043,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="V23" s="1"/>
-      <c r="W23" s="24" t="s">
+      <c r="W23" s="21" t="s">
         <v>54</v>
       </c>
       <c r="X23" s="2">
@@ -2060,7 +2068,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="V24" s="1"/>
-      <c r="W24" s="24" t="s">
+      <c r="W24" s="21" t="s">
         <v>54</v>
       </c>
       <c r="X24" s="2">
@@ -2178,8 +2186,8 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" hidden="1" customHeight="1">
@@ -2205,8 +2213,8 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
-      <c r="W29" s="24"/>
-      <c r="X29" s="24"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" hidden="1" customHeight="1">
@@ -2246,8 +2254,8 @@
         <v>67</v>
       </c>
       <c r="V30" s="1"/>
-      <c r="W30" s="24"/>
-      <c r="X30" s="24"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" hidden="1" customHeight="1">
@@ -2265,7 +2273,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="25">
+      <c r="O31" s="22">
         <v>501</v>
       </c>
       <c r="P31" s="11" t="s">
@@ -2287,8 +2295,8 @@
         <v>70</v>
       </c>
       <c r="V31" s="1"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" hidden="1" customHeight="1">
       <c r="A32" s="1"/>
@@ -2305,7 +2313,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="25">
+      <c r="O32" s="22">
         <v>502</v>
       </c>
       <c r="P32" s="11" t="s">
@@ -2327,8 +2335,8 @@
         <v>74</v>
       </c>
       <c r="V32" s="1"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="24"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
     </row>
     <row r="33" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A33" s="1"/>
@@ -2345,7 +2353,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="25">
+      <c r="O33" s="22">
         <v>503</v>
       </c>
       <c r="P33" s="11" t="s">
@@ -2365,8 +2373,8 @@
         <v>76</v>
       </c>
       <c r="V33" s="1"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="24"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A34" s="1"/>
@@ -2383,7 +2391,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="25">
+      <c r="O34" s="22">
         <v>504</v>
       </c>
       <c r="P34" s="1"/>
@@ -2401,8 +2409,8 @@
         <v>78</v>
       </c>
       <c r="V34" s="1"/>
-      <c r="W34" s="24"/>
-      <c r="X34" s="24"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A35" s="1"/>
@@ -2419,7 +2427,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
-      <c r="O35" s="25">
+      <c r="O35" s="22">
         <v>505</v>
       </c>
       <c r="P35" s="1"/>
@@ -2437,8 +2445,8 @@
         <v>80</v>
       </c>
       <c r="V35" s="1"/>
-      <c r="W35" s="24"/>
-      <c r="X35" s="24"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
     </row>
     <row r="36" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A36" s="1"/>
@@ -2455,7 +2463,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
-      <c r="O36" s="25">
+      <c r="O36" s="22">
         <v>506</v>
       </c>
       <c r="P36" s="1"/>
@@ -2471,8 +2479,8 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
-      <c r="W36" s="24"/>
-      <c r="X36" s="24"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
     </row>
     <row r="37" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A37" s="1"/>
@@ -2489,7 +2497,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-      <c r="O37" s="25">
+      <c r="O37" s="22">
         <v>507</v>
       </c>
       <c r="P37" s="1"/>
@@ -2503,11 +2511,11 @@
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="24"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
     </row>
     <row r="38" spans="1:24" ht="15.75" hidden="1" customHeight="1">
-      <c r="O38" s="25">
+      <c r="O38" s="22">
         <v>508</v>
       </c>
       <c r="P38" s="1"/>
@@ -2522,7 +2530,7 @@
       <c r="U38" s="1"/>
     </row>
     <row r="39" spans="1:24" ht="15.75" hidden="1" customHeight="1">
-      <c r="O39" s="25">
+      <c r="O39" s="22">
         <v>509</v>
       </c>
       <c r="P39" s="1"/>
@@ -2537,7 +2545,7 @@
       <c r="U39" s="1"/>
     </row>
     <row r="40" spans="1:24" ht="15.75" hidden="1" customHeight="1">
-      <c r="O40" s="25">
+      <c r="O40" s="22">
         <v>510</v>
       </c>
       <c r="P40" s="1"/>
@@ -2552,7 +2560,7 @@
       <c r="U40" s="1"/>
     </row>
     <row r="41" spans="1:24" ht="15.75" hidden="1" customHeight="1">
-      <c r="O41" s="25">
+      <c r="O41" s="22">
         <v>511</v>
       </c>
       <c r="P41" s="1"/>
@@ -2567,7 +2575,7 @@
       <c r="U41" s="1"/>
     </row>
     <row r="42" spans="1:24" ht="15.75" hidden="1" customHeight="1">
-      <c r="O42" s="25">
+      <c r="O42" s="22">
         <v>512</v>
       </c>
       <c r="P42" s="1"/>
@@ -2582,7 +2590,7 @@
       <c r="U42" s="1"/>
     </row>
     <row r="43" spans="1:24" ht="15.75" hidden="1" customHeight="1">
-      <c r="O43" s="25">
+      <c r="O43" s="22">
         <v>513</v>
       </c>
       <c r="P43" s="1"/>
@@ -2595,7 +2603,7 @@
       <c r="U43" s="1"/>
     </row>
     <row r="44" spans="1:24" ht="15.75" hidden="1" customHeight="1">
-      <c r="O44" s="25">
+      <c r="O44" s="22">
         <v>514</v>
       </c>
       <c r="P44" s="1"/>
@@ -2717,8 +2725,8 @@
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
-      <c r="W54" s="24"/>
-      <c r="X54" s="24"/>
+      <c r="W54" s="21"/>
+      <c r="X54" s="21"/>
     </row>
     <row r="55" spans="15:24" ht="15.75" hidden="1" customHeight="1">
       <c r="O55" s="1"/>
@@ -2731,7 +2739,7 @@
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
-      <c r="W55" s="24" t="s">
+      <c r="W55" s="21" t="s">
         <v>54</v>
       </c>
       <c r="X55" s="2">
@@ -2749,7 +2757,7 @@
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
-      <c r="W56" s="24" t="s">
+      <c r="W56" s="21" t="s">
         <v>54</v>
       </c>
       <c r="X56" s="2">
@@ -2767,7 +2775,7 @@
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
-      <c r="W57" s="24" t="s">
+      <c r="W57" s="21" t="s">
         <v>54</v>
       </c>
       <c r="X57" s="2">
@@ -2785,7 +2793,7 @@
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
-      <c r="W58" s="24" t="s">
+      <c r="W58" s="21" t="s">
         <v>54</v>
       </c>
       <c r="X58" s="2">
@@ -2803,7 +2811,7 @@
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
-      <c r="W59" s="24" t="s">
+      <c r="W59" s="21" t="s">
         <v>54</v>
       </c>
       <c r="X59" s="2" t="s">
@@ -2850,6 +2858,23 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
@@ -2858,23 +2883,6 @@
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:E5"/>
   </mergeCells>
   <dataValidations count="10">
     <dataValidation allowBlank="1" sqref="E15:E22" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
